--- a/MyProject/성적표.xlsx
+++ b/MyProject/성적표.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RProject\MyProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINSU\BigData_KNU\RProject\MyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED69809-C980-4A91-BCA1-AC200E0661DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DA66C5-2CF3-4C2B-B109-C7FB54B8E45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="1392" windowWidth="17280" windowHeight="9960" xr2:uid="{07D1F871-C25B-48C1-B96C-139CA676909B}"/>
+    <workbookView xWindow="3936" yWindow="1392" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{07D1F871-C25B-48C1-B96C-139CA676909B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +75,34 @@
   </si>
   <si>
     <t>아이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BDEC15-7550-48B9-9F9F-4D7850B66A48}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -462,8 +491,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,8 +514,14 @@
       <c r="E2">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>88</v>
+      </c>
+      <c r="G2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -496,8 +537,14 @@
       <c r="E3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>87</v>
+      </c>
+      <c r="G3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -513,8 +560,14 @@
       <c r="E4">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -530,8 +583,14 @@
       <c r="E5">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -545,6 +604,116 @@
         <v>84</v>
       </c>
       <c r="E6">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>84</v>
+      </c>
+      <c r="G6">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4BA03-EA9E-4D37-A7A0-F39D2E2B2B86}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>84</v>
+      </c>
+      <c r="D6">
         <v>57</v>
       </c>
     </row>
